--- a/semiconductors/section1/topic3/assets/a-Filtering-Fixed-Linear-Regulation-Lessons-Only.xlsx
+++ b/semiconductors/section1/topic3/assets/a-Filtering-Fixed-Linear-Regulation-Lessons-Only.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Computer-Engineering\Semiconductors-Private\g-Diode-Applications\c-Filtering-and-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784BCC5E-CE8E-40E3-8781-4276741BF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE487F2-7B0F-4CD4-983B-D0795F2C7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="718" xr2:uid="{E80DF3CB-22C8-48CC-A275-866A023A71E1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="718" activeTab="3" xr2:uid="{E80DF3CB-22C8-48CC-A275-866A023A71E1}"/>
   </bookViews>
   <sheets>
     <sheet name="L-HW-Filter" sheetId="9" r:id="rId1"/>
     <sheet name="L-FWB-Filter" sheetId="10" r:id="rId2"/>
     <sheet name="LWE-Top-HW-Filter" sheetId="7" r:id="rId3"/>
-    <sheet name="Lab3-FWB-Filter" sheetId="8" r:id="rId4"/>
-    <sheet name="L-FWCT-Filter-Reg" sheetId="11" r:id="rId5"/>
-    <sheet name="Lab3-FWB-Filter-Reg" sheetId="12" r:id="rId6"/>
+    <sheet name="L-FWCT-Filter-Reg" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>#Diodes</t>
   </si>
@@ -131,57 +129,6 @@
   </si>
   <si>
     <t>Amp</t>
-  </si>
-  <si>
-    <t>Mobius Measured</t>
-  </si>
-  <si>
-    <t>25.7 (1.5)</t>
-  </si>
-  <si>
-    <t>19.5 (1.5)</t>
-  </si>
-  <si>
-    <t>6.1 (1.5)</t>
-  </si>
-  <si>
-    <t>22.9 (1.5)</t>
-  </si>
-  <si>
-    <t>23 (1.5)</t>
-  </si>
-  <si>
-    <t>Vrms_load</t>
-  </si>
-  <si>
-    <t>Vr_rectifier</t>
-  </si>
-  <si>
-    <t>Vmin_rectifier</t>
-  </si>
-  <si>
-    <t>17.8 (1.5)</t>
-  </si>
-  <si>
-    <t>7.9 (1.5)</t>
-  </si>
-  <si>
-    <t>Vdc_rectifier</t>
-  </si>
-  <si>
-    <t>5 (0.2)</t>
-  </si>
-  <si>
-    <t>Vdropout</t>
-  </si>
-  <si>
-    <t>12.8 (1.5)</t>
-  </si>
-  <si>
-    <t>calc</t>
-  </si>
-  <si>
-    <t>17.8-5.0</t>
   </si>
   <si>
     <t>F</t>
@@ -197,10 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -237,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,16 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -264,9 +201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380D1E70-BC65-49E6-B822-221C02C4828A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +628,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>330</v>
@@ -705,14 +639,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>TEXT(0.00022,"##0E+0")</f>
         <v>220E-6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -727,11 +661,11 @@
         <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
         <v>120*sqrt(2)</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="4" t="str">
         <f>TEXT(D2*SQRT(2),"0.00")</f>
         <v>169.71</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -747,11 +681,11 @@
         <f>_xlfn.CONCAT(D11,"/",D5)</f>
         <v>169.71/10</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="4" t="str">
         <f>TEXT(D11/D5,"0.00")</f>
         <v>16.97</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -767,11 +701,11 @@
         <f>_xlfn.CONCAT(D6,"*",D7)</f>
         <v>0.7*1</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="4" t="str">
         <f>TEXT(D6*D7,"0.00")</f>
         <v>0.70</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -787,11 +721,11 @@
         <f>_xlfn.CONCAT(D12,"-",D13)</f>
         <v>16.97-0.70</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="5" t="str">
         <f>TEXT(D12-D13,"0.00")</f>
         <v>16.27</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -807,11 +741,11 @@
         <f>_xlfn.CONCAT("(",D14,"*",D20,")/(",D8,"*",D9,")")</f>
         <v>(16.27*0.0167)/(330*220E-6)</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="5" t="str">
         <f>TEXT((D14*D20)/(D8*D9),"0.00")</f>
         <v>3.74</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -827,11 +761,11 @@
         <f>_xlfn.CONCAT(D14,"-",D15)</f>
         <v>16.27-3.74</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="4" t="str">
         <f>TEXT(D14-D15,"0.00")</f>
         <v>12.53</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -847,17 +781,17 @@
         <f>_xlfn.CONCAT(D14,"-(",D15,"/2)")</f>
         <v>16.27-(3.74/2)</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="5" t="str">
         <f>TEXT(D14-(D15/2),"0.00")</f>
         <v>14.40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
@@ -871,11 +805,11 @@
         <f>_xlfn.CONCAT("1/",D3)</f>
         <v>1/60</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f>TEXT(1/D3,"0.0000")</f>
         <v>0.0167</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -891,11 +825,11 @@
         <f>_xlfn.CONCAT("1/",D4)</f>
         <v>1/60</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f>TEXT(1/D4,"0.0000")</f>
         <v>0.0167</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -998,7 +932,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>330</v>
@@ -1009,14 +943,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>TEXT(0.00022,"##0E+0")</f>
         <v>220E-6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -1031,11 +965,11 @@
         <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
         <v>120*sqrt(2)</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="4" t="str">
         <f>TEXT(D2*SQRT(2),"0.00")</f>
         <v>169.71</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1051,11 +985,11 @@
         <f>_xlfn.CONCAT(D11,"/",D5)</f>
         <v>169.71/10</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="4" t="str">
         <f>TEXT(D11/D5,"0.00")</f>
         <v>16.97</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1071,11 +1005,11 @@
         <f>_xlfn.CONCAT(D6,"*",D7)</f>
         <v>0.7*2</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="4" t="str">
         <f>TEXT(D6*D7,"0.00")</f>
         <v>1.40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1091,11 +1025,11 @@
         <f>_xlfn.CONCAT(D12,"-",D13)</f>
         <v>16.97-1.40</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="5" t="str">
         <f>TEXT(D12-D13,"0.00")</f>
         <v>15.57</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1111,11 +1045,11 @@
         <f>_xlfn.CONCAT("(",D14,"*",D20,")/(",D8,"*",D9,")")</f>
         <v>(15.57*0.0083)/(330*220E-6)</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="5" t="str">
         <f>TEXT((D14*D20)/(D8*D9),"0.00")</f>
         <v>1.78</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1131,11 +1065,11 @@
         <f>_xlfn.CONCAT(D14,"-",D15)</f>
         <v>15.57-1.78</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="4" t="str">
         <f>TEXT(D14-D15,"0.00")</f>
         <v>13.79</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1151,17 +1085,17 @@
         <f>_xlfn.CONCAT(D14,"-(",D15,"/2)")</f>
         <v>15.57-(1.78/2)</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="5" t="str">
         <f>TEXT(D14-(D15/2),"0.00")</f>
         <v>14.68</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
@@ -1175,11 +1109,11 @@
         <f>_xlfn.CONCAT("1/",D3)</f>
         <v>1/60</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f>TEXT(1/D3,"0.0000")</f>
         <v>0.0167</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1195,11 +1129,11 @@
         <f>_xlfn.CONCAT("1/",D4)</f>
         <v>1/120</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f>TEXT(1/D4,"0.0000")</f>
         <v>0.0083</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1302,7 +1236,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>470</v>
@@ -1313,14 +1247,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>TEXT(0.0001,"##0E+0")</f>
         <v>100E-6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
@@ -1335,11 +1269,11 @@
         <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
         <v>115*sqrt(2)</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="4" t="str">
         <f>TEXT(D2*SQRT(2),"0.00")</f>
         <v>162.63</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1355,11 +1289,11 @@
         <f>_xlfn.CONCAT(D11,"/",D5)</f>
         <v>162.63/10</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="4" t="str">
         <f>TEXT(D11/D5,"0.00")</f>
         <v>16.26</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1375,11 +1309,11 @@
         <f>_xlfn.CONCAT(D6,"*",D7)</f>
         <v>0.7*1</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="4" t="str">
         <f>TEXT(D6*D7,"0.00")</f>
         <v>0.70</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1395,11 +1329,11 @@
         <f>_xlfn.CONCAT(D12,"-",D13)</f>
         <v>16.26-0.70</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="5" t="str">
         <f>TEXT(D12-D13,"0.00")</f>
         <v>15.56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1415,11 +1349,11 @@
         <f>_xlfn.CONCAT("(",D14,"*",D20,")/(",D8,"*",D9,")")</f>
         <v>(15.56*0.0167)/(470*100E-6)</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="5" t="str">
         <f>TEXT((D14*D20)/(D8*D9),"0.00")</f>
         <v>5.53</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1435,11 +1369,11 @@
         <f>_xlfn.CONCAT(D14,"-",D15)</f>
         <v>15.56-5.53</v>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="5" t="str">
         <f>TEXT(D14-D15,"0.00")</f>
         <v>10.03</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1455,17 +1389,17 @@
         <f>_xlfn.CONCAT(D14,"-(",D15,"/2)")</f>
         <v>15.56-(5.53/2)</v>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="5" t="str">
         <f>TEXT(D14-(D15/2),"0.00")</f>
         <v>12.80</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
@@ -1479,11 +1413,11 @@
         <f>_xlfn.CONCAT("1/",D3)</f>
         <v>1/60</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f>TEXT(1/D3,"0.0000")</f>
         <v>0.0167</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1499,11 +1433,11 @@
         <f>_xlfn.CONCAT("1/",D4)</f>
         <v>1/60</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f>TEXT(1/D4,"0.0000")</f>
         <v>0.0167</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1514,345 +1448,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFCD39-AC77-4007-8D76-B64E33D81EA1}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1484375" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>TEXT(2200,"##0.0E+0")</f>
-        <v>2.2E+3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>TEXT(0.00001,"##0E+0")</f>
-        <v>10E-6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,"*sqrt(2)")</f>
-        <v>Vrms_source*sqrt(2)</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
-        <v>115*sqrt(2)</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f>TEXT(D2*SQRT(2),"0.00")</f>
-        <v>162.63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>_xlfn.CONCAT(A11,"/",A5)</f>
-        <v>Vp_source/Turns</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>_xlfn.CONCAT(D11,"/",D5)</f>
-        <v>162.63/6</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f>TEXT(D11/D5,"0.00")</f>
-        <v>27.11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f>_xlfn.CONCAT(A6,"*",A7)</f>
-        <v>Vdiode*#Diodes</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>_xlfn.CONCAT(D6,"*",D7)</f>
-        <v>0.7*2</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f>TEXT(D6*D7,"0.00")</f>
-        <v>1.40</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>_xlfn.CONCAT(A12,"-",A13)</f>
-        <v>Vp_secondary-Vdiodes</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>_xlfn.CONCAT(D12,"-",D13)</f>
-        <v>27.11-1.40</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>TEXT(D12-D13,"0.00")</f>
-        <v>25.71</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>_xlfn.CONCAT("(",A14,"*",A21,")/(",A8,"*",A9,")")</f>
-        <v>(Vp_load*Period_load)/(R_load*C_rectifier)</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D14,"*",D21,")/(",D8,"*",D9,")")</f>
-        <v>(25.71*0.0083)/(2.2E+3*10E-6)</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f>TEXT((D14*D21)/(D8*D9),"0.00")</f>
-        <v>9.70</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>_xlfn.CONCAT(A14,"-",A15)</f>
-        <v>Vp_load-Vr_load</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>_xlfn.CONCAT(D14,"-",D15)</f>
-        <v>25.71-9.70</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>TEXT(D14-D15,"0.00")</f>
-        <v>16.01</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>_xlfn.CONCAT(A14,"-(",A15,"/2)")</f>
-        <v>Vp_load-(Vr_load/2)</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>_xlfn.CONCAT(D14,"-(",D15,"/2)")</f>
-        <v>25.71-(9.70/2)</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>TEXT(D14-(D15/2),"0.00")</f>
-        <v>20.86</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",A3)</f>
-        <v>1/freq_source</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",D3)</f>
-        <v>1/60</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>TEXT(1/D3,"0.0000")</f>
-        <v>0.0167</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",A4)</f>
-        <v>1/freq_load</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",D4)</f>
-        <v>1/120</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f>TEXT(1/D4,"0.0000")</f>
-        <v>0.0083</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CB45F1-6375-45DC-9E98-1629C0ECE700}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1941,7 +1540,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>75</v>
@@ -1952,21 +1551,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>TEXT(0.00047,"##0E+0")</f>
         <v>470E-6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1985,11 +1584,11 @@
         <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
         <v>115*sqrt(2)</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="4" t="str">
         <f>TEXT(D2*SQRT(2),"0.00")</f>
         <v>162.63</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2005,11 +1604,11 @@
         <f>_xlfn.CONCAT(D12,"/",D5,"/2")</f>
         <v>162.63/6/2</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="4" t="str">
         <f>TEXT(D12/D5/2,"0.00")</f>
         <v>13.55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2025,11 +1624,11 @@
         <f>_xlfn.CONCAT(D6,"*",D7)</f>
         <v>0.6*1</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="4" t="str">
         <f>TEXT(D6*D7,"0.00")</f>
         <v>0.60</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2045,11 +1644,11 @@
         <f>_xlfn.CONCAT(D13,"-",D14)</f>
         <v>13.55-0.60</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="5" t="str">
         <f>TEXT(D13-D14,"0.00")</f>
         <v>12.95</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2065,11 +1664,11 @@
         <f>_xlfn.CONCAT(D10,"/",D8)</f>
         <v>8/75</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="4" t="str">
         <f>TEXT(D10/D8,"0.00")</f>
         <v>0.11</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2085,11 +1684,11 @@
         <f>_xlfn.CONCAT("(",D16,"*",D22,")/",D9)</f>
         <v>(0.11*0.00833)/470E-6</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="4" t="str">
         <f>TEXT((D16*D22)/(D9),"0.00")</f>
         <v>1.95</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2105,11 +1704,11 @@
         <f>_xlfn.CONCAT(D15,"-",D17)</f>
         <v>12.95-1.95</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="4" t="str">
         <f>TEXT(D15-D17,"0.00")</f>
         <v>11.00</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2125,17 +1724,17 @@
         <f>_xlfn.CONCAT(D15,"-(",D17,"/2)")</f>
         <v>12.95-(1.95/2)</v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="4" t="str">
         <f>TEXT(D15-(D17/2),"0.00")</f>
         <v>11.98</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
@@ -2149,11 +1748,11 @@
         <f>_xlfn.CONCAT("1/",D3)</f>
         <v>1/60</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="3" t="str">
         <f>TEXT(1/D3,"0.00000")</f>
         <v>0.01667</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2169,409 +1768,12 @@
         <f>_xlfn.CONCAT("1/",D4)</f>
         <v>1/120</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="3" t="str">
         <f>TEXT(1/D4,"0.00000")</f>
         <v>0.00833</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02403323-B4FF-4C49-BC88-9C1A5C4C161B}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.84765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1484375" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1">
-        <v>560</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>TEXT(0.00001,"##0E+0")</f>
-        <v>10E-6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,"*sqrt(2)")</f>
-        <v>Vrms_source*sqrt(2)</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>_xlfn.CONCAT(D2,"*sqrt(2)")</f>
-        <v>115*sqrt(2)</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f>TEXT(D2*SQRT(2),"0.00")</f>
-        <v>162.63</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f>_xlfn.CONCAT(A12,"/",A5)</f>
-        <v>Vp_source/Turns</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>_xlfn.CONCAT(D12,"/",D5)</f>
-        <v>162.63/6</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f>TEXT(D12/D5,"0.00")</f>
-        <v>27.11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>_xlfn.CONCAT(A6,"*",A7)</f>
-        <v>Vdiode*#Diodes</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>_xlfn.CONCAT(D6,"*",D7)</f>
-        <v>0.7*2</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f>TEXT(D6*D7,"0.00")</f>
-        <v>1.40</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>_xlfn.CONCAT(A13,"-",A14)</f>
-        <v>Vp_secondary-Vdiodes</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>_xlfn.CONCAT(D13,"-",D14)</f>
-        <v>27.11-1.40</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f>TEXT(D13-D14,"0.00")</f>
-        <v>25.71</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>_xlfn.CONCAT(A10,"/",A8)</f>
-        <v>Vdc_load/R_load</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>_xlfn.CONCAT(D10,"/",D8)</f>
-        <v>5/560</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f>TEXT(D10/D8,"0.00")</f>
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>_xlfn.CONCAT("(",A16,"*",A24,")/",A9)</f>
-        <v>(I_load*Period_load)/C_rectifier</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D16,"*",D24,")/",D9)</f>
-        <v>(0.01*0.0083)/10E-6</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f>TEXT((D16*D24)/(D9),"0.00")</f>
-        <v>8.30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f>_xlfn.CONCAT(A15,"-",A17)</f>
-        <v>Vp_rectifier-Vr_rectifier</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>_xlfn.CONCAT(D15,"-",D17)</f>
-        <v>25.71-8.30</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>TEXT(D15-D17,"0.00")</f>
-        <v>17.41</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f>_xlfn.CONCAT(A15,"-(",A17,"/2)")</f>
-        <v>Vp_rectifier-(Vr_rectifier/2)</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>_xlfn.CONCAT(D15,"-(",D17,"/2)")</f>
-        <v>25.71-(8.30/2)</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <f>TEXT(D15-(D17/2),"0.00")</f>
-        <v>21.56</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f>_xlfn.CONCAT(A18,"-",A10)</f>
-        <v>Vmin_rectifier-Vdc_load</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>_xlfn.CONCAT(D18,"-",D10)</f>
-        <v>17.41-5</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f>TEXT(D18-D10,"0.00")</f>
-        <v>12.41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",A3)</f>
-        <v>1/freq_source</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",D3)</f>
-        <v>1/60</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f>TEXT(1/D3,"0.0000")</f>
-        <v>0.0167</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",A4)</f>
-        <v>1/freq_load</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>_xlfn.CONCAT("1/",D4)</f>
-        <v>1/120</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f>TEXT(1/D4,"0.0000")</f>
-        <v>0.0083</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1">
-        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
